--- a/Project/Notes/Gantt project planner1.xlsx
+++ b/Project/Notes/Gantt project planner1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\EGH400_App\Project\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A31C376-50DF-41BE-BC2D-69847CD6E7E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B0819-878E-48AA-8686-EB01CD16110C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Project Planner</t>
   </si>
@@ -251,12 +251,21 @@
   <si>
     <t>end</t>
   </si>
+  <si>
+    <t xml:space="preserve">Tasks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports and Presentations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Milestones </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -286,12 +295,6 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -358,6 +361,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
@@ -503,14 +523,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -519,44 +539,44 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,28 +586,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -596,13 +613,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="13">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
@@ -620,11 +637,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -632,34 +658,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
@@ -674,14 +700,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="8" borderId="2" xfId="3" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1092,10 +1121,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO33"/>
+  <dimension ref="B1:BO38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1108,127 +1137,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>8</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="31" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="31" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="23" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="36" t="s">
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+    </row>
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="39" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="41" t="s">
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AI3" s="41" t="s">
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AI3" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="3">
         <f>3</f>
         <v>3</v>
@@ -1277,7 +1306,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T4" s="40">
+      <c r="T4" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1289,7 +1318,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="W4" s="40">
+      <c r="W4" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1337,7 +1366,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AI4" s="40">
+      <c r="AI4" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1470,455 +1499,561 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8">
+      <c r="F9" s="6"/>
+      <c r="G9" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="6">
         <v>5</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8">
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="6">
         <v>4</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8">
+      <c r="F11" s="6"/>
+      <c r="G11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="6">
         <v>7</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="6">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="6">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="6">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C16" s="8">
         <v>11</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="6">
         <v>14</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="6">
         <v>15</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="6">
         <v>18</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="6">
         <v>19</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="6">
         <v>3</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="6">
         <v>22</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22" t="s">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="6">
         <v>23</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="6">
         <v>3</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-    </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C24" s="6">
         <v>4</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24" s="6">
         <v>3</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="6">
         <v>4</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8">
+      <c r="F24" s="6"/>
+      <c r="G24" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C25" s="6">
         <v>4</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="6">
         <v>5</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="6">
         <v>4</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8">
+      <c r="F25" s="6"/>
+      <c r="G25" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="6">
         <v>10</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="6">
         <v>4</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C27" s="6">
         <v>10</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="6">
         <v>6</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="6">
         <v>10</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="6">
         <v>6</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C29" s="6">
         <v>18</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D29" s="6">
         <v>4</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="22" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="6">
         <v>18</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="6">
         <v>6</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C31" s="6">
         <v>25</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="6">
         <v>5</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="22" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C32" s="6">
         <v>25</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="6">
         <v>7</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="22" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="44"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="43"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="43"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1935,7 +2070,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO33">
+  <conditionalFormatting sqref="H6:BO38">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1961,17 +2096,17 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:BO34">
+  <conditionalFormatting sqref="B39:BO39">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
+  <conditionalFormatting sqref="H4:BO5">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="16">
+  <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
@@ -1982,12 +2117,12 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B5" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C5" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D5" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E5" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F5" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G5" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>

--- a/Project/Notes/Gantt project planner1.xlsx
+++ b/Project/Notes/Gantt project planner1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\EGH400_App\Project\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B0819-878E-48AA-8686-EB01CD16110C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842F9CA6-6532-4EE0-80A1-E4494CCD14B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19710" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Project Planner</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reports and Presentations </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development Milestones </t>
   </si>
 </sst>
 </file>
@@ -652,6 +649,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -699,18 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1123,8 +1120,8 @@
   </sheetPr>
   <dimension ref="B1:BO38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="60" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,11 +1144,11 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1159,66 +1156,66 @@
         <v>8</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="35"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="39"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="41"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="40"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="44"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1252,12 +1249,12 @@
       </c>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="3">
         <f>3</f>
         <v>3</v>
@@ -1500,14 +1497,14 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1642,7 +1639,9 @@
       <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
       <c r="G9" s="7">
         <v>1</v>
       </c>
@@ -1660,9 +1659,11 @@
       <c r="E10" s="6">
         <v>4</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1680,7 +1681,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1860,7 +1861,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="6"/>
@@ -1882,9 +1883,11 @@
       <c r="E24" s="6">
         <v>4</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6">
+        <v>5</v>
+      </c>
       <c r="G24" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1900,9 +1903,11 @@
       <c r="E25" s="6">
         <v>4</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
       <c r="G25" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1997,7 +2002,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -2007,16 +2012,18 @@
       <c r="B33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="6">
+        <v>25</v>
+      </c>
+      <c r="D33" s="6">
+        <v>6</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="B34" s="27"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2024,7 +2031,7 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="44"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2032,7 +2039,7 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="43"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2040,7 +2047,7 @@
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="43"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>

--- a/Project/Notes/Gantt project planner1.xlsx
+++ b/Project/Notes/Gantt project planner1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\EGH400_App\Project\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842F9CA6-6532-4EE0-80A1-E4494CCD14B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54C6E6A-93D9-4F28-B2B9-32B552BD5920}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19710" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1120,8 +1120,8 @@
   </sheetPr>
   <dimension ref="B1:BO38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="60" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="60" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1153,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="14">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="37" t="s">
@@ -1640,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -1677,11 +1677,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="6">
-        <v>4</v>
-      </c>
-      <c r="F11" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
       <c r="G11" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1694,10 +1696,14 @@
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="6">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1710,10 +1716,14 @@
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="6">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1726,10 +1736,14 @@
       <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1742,10 +1756,14 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1758,10 +1776,12 @@
       <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6">
+        <v>15</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1920,9 +1940,13 @@
       <c r="D26" s="6">
         <v>4</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6">
+        <v>12</v>
+      </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -1934,9 +1958,13 @@
       <c r="D27" s="6">
         <v>6</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6">
+        <v>12</v>
+      </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
